--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Extensión de Plazo Sistema de Tratamiento Terciario</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Extensión de Plazo Sistema de Tratamiento Terciario</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Extensión de Plazo Sistema de Tratamiento Terciario</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Extensión de Plazo Sistema de Tratamiento Terciario</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Parque Solar Del Sol Spa</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Flux Solar Energías Renovables SpA</t>
+          <t>Tedlar Júpiter SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -11383,7 +11383,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Maltexco S.A.</t>
+          <t>Empresas Malterías S.A. Maltexco S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Maltexco S.A.</t>
+          <t>Empresas Malterías S.A. Maltexco S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -11383,7 +11383,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Empresas Malterías S.A. Maltexco S.A.</t>
+          <t>Empresas Malterías S.A. Maltexco S.A...</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Empresas Malterías S.A. Maltexco S.A.</t>
+          <t>Empresas Malterías S.A. Maltexco S.A...</t>
         </is>
       </c>
       <c r="F256" t="n">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Extensión de Plazo Sistema de Tratamiento Terciario</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Extensión de Plazo Sistema de Tratamiento Terciario</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Extensión de Plazo Sistema de Tratamiento Terciario</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Extensión de Plazo Sistema de Tratamiento Terciario</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Extensión de Plazo Sistema de Tratamiento Terciario</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Extensión de Plazo Sistema de Tratamiento Terciario</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>765791</v>
+        <v>7658</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/05/2023</t>
+          <t>05/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CMPC TISSUE S.A</t>
+          <t>Softys Chile SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CMPC Tissue S.A.</t>
+          <t>Softys Chile SpA</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>CMPC Tissue S.A.</t>
+          <t>Softys Chile SpA</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -11527,7 +11527,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CMPC Tissue S.A.</t>
+          <t>Softys Chile SpA</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>CMPC Tissue S.A.</t>
+          <t>Softys Chile SpA</t>
         </is>
       </c>
       <c r="F274" t="n">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ENV SPA</t>
+          <t>Constructora INGEVEC S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Extensión de Plazo Sistema de Tratamiento Terciario</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Extensión de Plazo Sistema de Tratamiento Terciario</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Varazze</t>
+          <t>Proyecto Solar Fotovoltaico Martasol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Varazze SpA</t>
+          <t>Consorcio Santa Marta S. A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/12/2023</t>
+          <t>21/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160831125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160788229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Martasol</t>
+          <t>Planta Fotovoltaica Varazze</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Consorcio Santa Marta S. A.</t>
+          <t>Varazze SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160788229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160831125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Extensión de Plazo Sistema de Tratamiento Terciario</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Extensión de Plazo Sistema de Tratamiento Terciario</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Talagante.xlsx
+++ b/data/Talagante.xlsx
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Apart Hotel Los Paltos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Miguel Angel Oliva Soto</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>800</v>
+        <v>27000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Apart Hotel Los Paltos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Miguel Angel Oliva Soto</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>27000</v>
+        <v>800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Talagante</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Actualización y Adecuación Plan Regulador Comunal de Talagante (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Talagante</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3093114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Plan de Seguimiento, Mitigación y/o Reparación Ambiental (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1786232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Planta de Riles Chile Andes Foods S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>CHILE ANDES FOODS SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1500288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
